--- a/biology/Médecine/Miriam_Adhikari/Miriam_Adhikari.xlsx
+++ b/biology/Médecine/Miriam_Adhikari/Miriam_Adhikari.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Miriam Adhikari est un médecin et une scientifique, spécialisée en pédiatrie et plus particulièrement en néonatologie[1]. Elle est professeur émérite à l'université du KwaZulu-Natal et néonatologue à l'école de médecine Nelson Mandela.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Miriam Adhikari est un médecin et une scientifique, spécialisée en pédiatrie et plus particulièrement en néonatologie. Elle est professeur émérite à l'université du KwaZulu-Natal et néonatologue à l'école de médecine Nelson Mandela.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle a obtenu son diplôme à l'université du Cap et a fait sa thèse de troisième cycle et de doctorat à l'université du Natal[2].
-Elle s'intéresse également à la néphrologie pédiatrique et est membre de l'Académie des sciences d'Afrique du Sud[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle a obtenu son diplôme à l'université du Cap et a fait sa thèse de troisième cycle et de doctorat à l'université du Natal.
+Elle s'intéresse également à la néphrologie pédiatrique et est membre de l'Académie des sciences d'Afrique du Sud.
 En 2017, le gouvernement du KwaZulu-Natal lui a décerné le prix annuel de l'excellence des services. Elle a déclaré que son objectif principal était d'enseigner au personnel infirmier l'importance de la prise en charge des mères et des bébés.
 </t>
         </is>
